--- a/Models/Intellia Therapeutics (NTLA).xlsx
+++ b/Models/Intellia Therapeutics (NTLA).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luka/Documents/Finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81580A89-95E4-D94B-A0D9-FB132CED25AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFB65FC-5AF3-4647-96F7-5BC42950270A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4060" yWindow="3160" windowWidth="30500" windowHeight="16440" activeTab="1" xr2:uid="{E3EA4788-0E21-5A40-B320-9D74BEC654F4}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Main</t>
   </si>
@@ -130,13 +130,98 @@
   </si>
   <si>
     <t>Employee Expenses</t>
+  </si>
+  <si>
+    <t>Research Materials</t>
+  </si>
+  <si>
+    <t>In-process R&amp;D</t>
+  </si>
+  <si>
+    <t>Facility</t>
+  </si>
+  <si>
+    <t>Stock Compensation</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>Loss from Equity</t>
+  </si>
+  <si>
+    <t>Other Expenses</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Revenue Y/Y</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Dep &amp; Ammort</t>
+  </si>
+  <si>
+    <t>EBITDA</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Chang in fair value</t>
+  </si>
+  <si>
+    <t>NTLA-2001 Price</t>
+  </si>
+  <si>
+    <t>NTLA-2001 Revenue</t>
+  </si>
+  <si>
+    <t>NTLA-2001 patients</t>
+  </si>
+  <si>
+    <t>NTLA-2002 Revenue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -215,25 +300,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -983,7 +1075,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1085,19 +1177,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFE2086-14F9-4C48-9B99-D59503FBA11E}">
-  <dimension ref="A1:AP12"/>
+  <dimension ref="A1:AP37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -1231,41 +1323,326 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="8" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="9">
-        <v>52121</v>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2">
-        <v>37849</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
-        <v>11611</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="9">
+        <v>33053</v>
+      </c>
+      <c r="D10" s="9">
+        <v>52121</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C11" s="2">
+        <v>24350</v>
       </c>
       <c r="D11" s="2">
-        <v>17827</v>
+        <v>37849</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7375</v>
+      </c>
+      <c r="D12" s="2">
+        <v>11611</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>22157</v>
+      </c>
+      <c r="D13" s="2">
+        <v>17827</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="C14" s="2">
+        <v>70798</v>
+      </c>
+      <c r="D14" s="2">
+        <v>112975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2">
+        <v>49796</v>
+      </c>
+      <c r="D15" s="2">
+        <v>86296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2">
+        <v>55990</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2">
+        <v>26873</v>
+      </c>
+      <c r="D17" s="2">
+        <v>37618</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2">
+        <v>26712</v>
+      </c>
+      <c r="D18" s="2">
+        <v>56279</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1746</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2">
+        <f>SUM(C11:C19)</f>
+        <v>229807</v>
+      </c>
+      <c r="D20" s="2">
+        <f>SUM(D11:D19)</f>
+        <v>419979</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2">
+        <v>71096</v>
+      </c>
+      <c r="D21" s="2">
+        <v>90306</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2">
+        <f>SUM(C20:C21)</f>
+        <v>300903</v>
+      </c>
+      <c r="D22" s="2">
+        <f>SUM(D20:D21)</f>
+        <v>510285</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2">
+        <f>C10-C22</f>
+        <v>-267850</v>
+      </c>
+      <c r="D23" s="2">
+        <f>D10-D22</f>
+        <v>-458164</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1283</v>
+      </c>
+      <c r="D24" s="2">
+        <v>8542</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2">
+        <v>-1325</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-11079</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-13485</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2">
+        <f>SUM(C24:C26)</f>
+        <v>-42</v>
+      </c>
+      <c r="D27" s="2">
+        <f>SUM(D24:D26)</f>
+        <v>-16022</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="9">
+        <f>C23+C27</f>
+        <v>-267892</v>
+      </c>
+      <c r="D28" s="9">
+        <f>D23+D27</f>
+        <v>-474186</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="2">
+        <v>6891</v>
+      </c>
+      <c r="D29" s="2">
+        <v>7572</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="2">
+        <f>C28+C29</f>
+        <v>-261001</v>
+      </c>
+      <c r="D30" s="2">
+        <f>D28+D29</f>
+        <v>-466614</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2">
+        <v>70894</v>
+      </c>
+      <c r="D31" s="2">
+        <v>76972</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="11">
+        <f>C28/C31</f>
+        <v>-3.778768301971958</v>
+      </c>
+      <c r="D32" s="11">
+        <f>D28/D31</f>
+        <v>-6.1604999220495769</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="10">
+        <f>D10/C10-1</f>
+        <v>0.5768916588509363</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="10">
+        <f>C23/C10</f>
+        <v>-8.1036517108885722</v>
+      </c>
+      <c r="D36" s="10">
+        <f>D23/D10</f>
+        <v>-8.7903915888029776</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="10">
+        <f>C28/C10</f>
+        <v>-8.104922397361813</v>
+      </c>
+      <c r="D37" s="10">
+        <f>D28/D10</f>
+        <v>-9.0977916770591509</v>
       </c>
     </row>
   </sheetData>
@@ -1285,6 +1662,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1306,12 +1686,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA929B3-2133-9B4C-B7C7-C7B4286791A5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{F34E003B-9101-EF4A-861D-971D7236DE14}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Models/Intellia Therapeutics (NTLA).xlsx
+++ b/Models/Intellia Therapeutics (NTLA).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luka/Documents/Finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFB65FC-5AF3-4647-96F7-5BC42950270A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4117BF18-EF56-9D41-ADD8-65C3976789AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="3160" windowWidth="30500" windowHeight="16440" activeTab="1" xr2:uid="{E3EA4788-0E21-5A40-B320-9D74BEC654F4}"/>
+    <workbookView xWindow="4060" yWindow="3160" windowWidth="30500" windowHeight="16440" xr2:uid="{E3EA4788-0E21-5A40-B320-9D74BEC654F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="NTLA-2001" sheetId="3" r:id="rId3"/>
     <sheet name="NTLA-2002" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -305,7 +305,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -314,7 +314,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -462,36 +461,36 @@
     <v>Powered by Refinitiv</v>
     <v>78.58</v>
     <v>32.435000000000002</v>
-    <v>1.8976</v>
-    <v>2.4900000000000002</v>
-    <v>6.9513999999999992E-2</v>
-    <v>1.69</v>
-    <v>4.4114000000000007E-2</v>
+    <v>1.8822000000000001</v>
+    <v>-0.71</v>
+    <v>-1.7509E-2</v>
+    <v>-0.14000000000000001</v>
+    <v>-3.5139999999999998E-3</v>
     <v>USD</v>
-    <v>Intellia Therapeutics, Inc. is a clinical-stage genome editing company. The Company is focused on developing curative therapeutics using Clustered, Regularly Interspaced Short Palindromic Repeats/CRISPR associated 9 (CRISPR/Cas9) technology. CRISPR/Cas9 is a technology for genome editing, the process of altering selected sequences of genomic deoxyribonucleic acid (DNA). It is focused on leveraging its modular platform to advance in vivo and ex vivo therapies for diseases with high unmet need. Its lead in vivo candidate, NTLA-2001, is for the treatment of transthyretin (ATTR) amyloidosis, as well as NTLA-2002 for the treatment of hereditary angioedema (HAE). The Company is developing ex vivo applications to address immuno-oncology and autoimmune diseases. Its advanced ex vivo programs include a wholly owned T cell receptor (TCR)-T cell candidate, NTLA-5001 for the treatment of acute myeloid leukemia (AML) and hematopoietic stem cells (HSCs) for the treatment of sickle cell disease.</v>
+    <v>Intellia Therapeutics, Inc. is a clinical-stage genome editing company, which is focused on developing curative therapeutics using Clustered, Regularly Interspaced Short Palindromic Repeats/CRISPR associated 9 (CRISPR/Cas9) technology. CRISPR/Cas9 is a technology for genome editing, the process of altering selected sequences of genomic deoxyribonucleic acid. It is focused on leveraging its modular platform to advance in vivo and ex vivo therapies for diseases with high unmet need. Its lead in vivo candidate, NTLA-2001, is for the treatment of transthyretin (ATTR) amyloidosis, as well as NTLA-2002 for the treatment of hereditary angioedema (HAE). It is developing ex vivo applications to address immuno-oncology and autoimmune diseases. Its advanced ex vivo programs include a wholly owned chimeric antigen receptor T (CAR-T) cell candidate, NTLA-6001 targeting CD30 for the treatment of CD30-expressing hematologic cancers, including relapsed or refractory classical Hodgkin's lymphoma.</v>
     <v>598</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>40 Erie St Ste 130, CAMBRIDGE, MA, 02139-4254 US</v>
-    <v>38.65</v>
+    <v>40.49</v>
     <v>Biotechnology &amp; Medical Research</v>
     <v>Stock</v>
-    <v>44998.955935219528</v>
+    <v>45002.939850103903</v>
     <v>0</v>
-    <v>35.25</v>
-    <v>3371967281</v>
+    <v>38.92</v>
+    <v>3506635000</v>
     <v>INTELLIA THERAPEUTICS, INC.</v>
     <v>INTELLIA THERAPEUTICS, INC.</v>
-    <v>35.39</v>
-    <v>35.82</v>
-    <v>38.31</v>
-    <v>40</v>
+    <v>40.47</v>
+    <v>40.549999999999997</v>
+    <v>39.840000000000003</v>
+    <v>39.700000000000003</v>
     <v>88017940</v>
     <v>NTLA</v>
     <v>INTELLIA THERAPEUTICS, INC. (XNAS:NTLA)</v>
-    <v>1505689</v>
-    <v>1159253</v>
+    <v>1395175</v>
+    <v>1260211</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -1074,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129871E0-BDA8-F544-8A7D-ECF5245BED3E}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1108,12 +1107,12 @@
       <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="3" cm="1">
         <f t="array" ref="J3">_FV(A1,"Price")</f>
-        <v>38.31</v>
+        <v>39.840000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1137,7 +1136,7 @@
       </c>
       <c r="J5" s="2">
         <f>J3*J4</f>
-        <v>3371967281.4000001</v>
+        <v>3506634729.6000004</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1163,13 +1162,14 @@
       </c>
       <c r="J8" s="2">
         <f>J5+J7-J6</f>
-        <v>2179345281.4000001</v>
+        <v>2314012729.6000004</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" location="'NTLA-2001'!A1" display="NTLA-2001" xr:uid="{5352A866-B547-AF4F-A37F-75E47F627C0E}"/>
     <hyperlink ref="B5" location="'NTLA-2002'!A1" display="NTLA-2002" xr:uid="{6ED4CCA7-F44E-C54D-BEEC-59D9E39101DC}"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{49156C26-9B7D-F945-ADC5-4D45151EE3D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1179,16 +1179,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFE2086-14F9-4C48-9B99-D59503FBA11E}">
   <dimension ref="A1:AP37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
@@ -1201,125 +1201,125 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="8">
+    <row r="2" spans="1:42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C2">
         <v>2021</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2">
         <v>2022</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2">
         <v>2023</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2">
         <v>2024</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2">
         <v>2025</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2">
         <v>2026</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2">
         <v>2027</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2">
         <v>2028</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2">
         <v>2029</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2">
         <v>2030</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2">
         <v>2031</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2">
         <v>2032</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2">
         <v>2033</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2">
         <v>2034</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2">
         <v>2035</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2">
         <v>2036</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2">
         <v>2037</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2">
         <v>2038</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2">
         <v>2039</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2">
         <v>2040</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2">
         <v>2041</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2">
         <v>2042</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2">
         <v>2043</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="Z2">
         <v>2044</v>
       </c>
-      <c r="AA2" s="8">
+      <c r="AA2">
         <v>2045</v>
       </c>
-      <c r="AB2" s="8">
+      <c r="AB2">
         <v>2046</v>
       </c>
-      <c r="AC2" s="8">
+      <c r="AC2">
         <v>2047</v>
       </c>
-      <c r="AD2" s="8">
+      <c r="AD2">
         <v>2048</v>
       </c>
-      <c r="AE2" s="8">
+      <c r="AE2">
         <v>2049</v>
       </c>
-      <c r="AF2" s="8">
+      <c r="AF2">
         <v>2050</v>
       </c>
-      <c r="AG2" s="8">
+      <c r="AG2">
         <v>2051</v>
       </c>
-      <c r="AH2" s="8">
+      <c r="AH2">
         <v>2052</v>
       </c>
-      <c r="AI2" s="8">
+      <c r="AI2">
         <v>2053</v>
       </c>
-      <c r="AJ2" s="8">
+      <c r="AJ2">
         <v>2054</v>
       </c>
-      <c r="AK2" s="8">
+      <c r="AK2">
         <v>2055</v>
       </c>
-      <c r="AL2" s="8">
+      <c r="AL2">
         <v>2056</v>
       </c>
-      <c r="AM2" s="8">
+      <c r="AM2">
         <v>2057</v>
       </c>
-      <c r="AN2" s="8">
+      <c r="AN2">
         <v>2058</v>
       </c>
-      <c r="AO2" s="8">
+      <c r="AO2">
         <v>2059</v>
       </c>
-      <c r="AP2" s="8">
+      <c r="AP2">
         <v>2060</v>
       </c>
     </row>
@@ -1343,14 +1343,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>33053</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>52121</v>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="2">
@@ -1529,7 +1529,7 @@
       <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="2">
@@ -1549,15 +1549,15 @@
         <v>-16022</v>
       </c>
     </row>
-    <row r="28" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="9" t="s">
+    <row r="28" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <f>C23+C27</f>
         <v>-267892</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <f>D23+D27</f>
         <v>-474186</v>
       </c>
@@ -1597,15 +1597,15 @@
         <v>76972</v>
       </c>
     </row>
-    <row r="32" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="9" t="s">
+    <row r="32" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="10">
         <f>C28/C31</f>
         <v>-3.778768301971958</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="10">
         <f>D28/D31</f>
         <v>-6.1604999220495769</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="B35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <f>D10/C10-1</f>
         <v>0.5768916588509363</v>
       </c>
@@ -1623,11 +1623,11 @@
       <c r="B36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <f>C23/C10</f>
         <v>-8.1036517108885722</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="9">
         <f>D23/D10</f>
         <v>-8.7903915888029776</v>
       </c>
@@ -1636,11 +1636,11 @@
       <c r="B37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="9">
         <f>C28/C10</f>
         <v>-8.104922397361813</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="9">
         <f>D28/D10</f>
         <v>-9.0977916770591509</v>
       </c>
